--- a/wiki_history_xlsx/wiki_Kansas.xlsx
+++ b/wiki_history_xlsx/wiki_Kansas.xlsx
@@ -53,6 +53,9 @@
     <t>Shuoh</t>
   </si>
   <si>
+    <t>Cewbot</t>
+  </si>
+  <si>
     <t>Owennson</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>Sz-iwbot</t>
-  </si>
-  <si>
-    <t>Cewbot</t>
   </si>
   <si>
     <t>Winstonhyypia</t>
@@ -928,7 +928,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
